--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>74.78093439009962</v>
+        <v>75.07660663569979</v>
       </c>
     </row>
     <row r="3">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>68.6513552074579</v>
+        <v>68.92279204524594</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>75.07660663569979</v>
+        <v>75.37525481742374</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -50,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,27 +127,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -176,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,13 +176,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +947,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -988,6 +969,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>40.78947368421053</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>43.42105263157895</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>56.57894736842105</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>43.42105263157895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>16.07142857142857</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>66.07142857142857</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>33.92857142857143</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>66.07142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1262,13 +1421,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,138 +1436,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B4" s="4" t="n">
         <v>1.232533125968933</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.9043348644032806</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>1.429354929629787</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>2.136867990372214</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>1.429354929629787</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>34.56130347477666</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>25.35833807054252</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>40.08035845468081</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>59.91964154531919</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>40.08035845468081</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1429,19 +1587,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1497,11 +1655,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1514,97 +1668,110 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
-        <v>34</v>
+      <c r="A4" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.232533125968933</v>
+        <v>1.168183850455976</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9043348644032806</v>
+        <v>0.8254368532418223</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.061177584261672</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.136867990372214</v>
+        <v>1.993620703697798</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.061177584261672</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>38.24094883974463</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>27.02099370997074</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>34.73805745028463</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>59.91964154531919</v>
+        <v>65.26194254971536</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>34.73805745028463</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1.232533125968933</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.9043348644032806</v>
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.06434927551295706</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0.07889801116145832</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>0.3681773453681145</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.136867990372214</v>
+        <v>0.1432472866744154</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>0.3681773453681145</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>12.58235749341181</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>15.42710425314383</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>71.99053825344434</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>59.91964154531919</v>
+        <v>28.00946174655565</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>71.99053825344434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
+          <t>Area 34 Total</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.232533125968933</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.9043348644032806</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.429354929629787</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.136867990372214</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.429354929629787</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>34.56130347477666</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.35833807054252</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>40.08035845468081</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>59.91964154531918</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>40.08035845468081</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1783,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,154 +1798,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>75.37525481742374</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B4" s="4" t="n">
+        <v>73.70853227765006</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>34.56130347477666</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>25.35833807054252</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>40.08035845468081</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>59.91964154531919</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>40.08035845468081</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>68.92279204524594</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="H4" s="4" t="n">
+        <v>67.13708455060036</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>36.54353756634912</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>63.45646243365088</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>36.54353756634912</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="M4" s="4" t="n">
         <v>63.45646243365088</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -974,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,6 +1139,52 @@
       </c>
       <c r="N3" s="4" t="n">
         <v>66.07142857142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>53.03030303030303</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>46.96969696969697</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>53.03030303030303</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1807,77 +1853,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1895,54 +1929,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>34</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>73.70853227765006</v>
+        <v>34.56130347477666</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>25.35833807054252</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>40.08035845468081</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>59.91964154531919</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>40.08035845468081</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>59.91964154531919</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>40.08035845468081</v>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>67.13708455060036</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>36.59405010464138</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>63.40594989535864</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>36.54353756634912</v>
+        <v>36.59405010464138</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>63.45646243365088</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>36.54353756634912</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>63.45646243365088</v>
+        <v>63.40594989535864</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -625,37 +625,37 @@
         <v>34</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>22</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>70</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>70</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
   </sheetData>
@@ -747,37 +747,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>33</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.78947368421053</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>40.78947368421053</v>
+        <v>41.55844155844156</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>56.57894736842105</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="3">
@@ -831,37 +831,37 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
   </sheetData>
@@ -915,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>38</v>
@@ -938,7 +938,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>10</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>133</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>132</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>63</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>38</v>
@@ -1068,31 +1068,31 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>15.78947368421053</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>40.78947368421053</v>
+        <v>41.55844155844156</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>56.57894736842105</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="3">
@@ -1105,7 +1105,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>63</v>
@@ -1160,31 +1160,31 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
   </sheetData>
@@ -1392,37 +1392,37 @@
         <v>34</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>70</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>39</v>
@@ -1573,34 +1573,34 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.232533125968933</v>
+        <v>1.239430784680212</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9043348644032806</v>
+        <v>1.03507967575426</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.136867990372214</v>
+        <v>2.274510460434472</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>29.02453657478259</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>59.91964154531919</v>
+        <v>63.77925641376328</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
     </row>
   </sheetData>
@@ -1718,34 +1718,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.168183850455976</v>
+        <v>1.174788887361778</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8254368532418223</v>
+        <v>0.9546087431147254</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.061177584261672</v>
+        <v>0.9374098366336738</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.993620703697798</v>
+        <v>2.129397630476503</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.061177584261672</v>
+        <v>0.9374098366336738</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>38.24094883974463</v>
+        <v>38.30657450657539</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.02099370997074</v>
+        <v>31.12711682596247</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>34.73805745028463</v>
+        <v>30.56630866746213</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>65.26194254971536</v>
+        <v>69.43369133253788</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>34.73805745028463</v>
+        <v>30.56630866746213</v>
       </c>
     </row>
     <row r="5">
@@ -1753,34 +1753,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>0.06434927551295706</v>
+        <v>0.06464189731843351</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>0.07889801116145832</v>
+        <v>0.08047093263953488</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.3681773453681145</v>
+        <v>0.3543026229338546</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1432472866744154</v>
+        <v>0.1451128299579684</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.3681773453681145</v>
+        <v>0.3543026229338546</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.58235749341181</v>
+        <v>12.94351164829403</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.42710425314383</v>
+        <v>16.11302417127359</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>71.99053825344434</v>
+        <v>70.94346418043239</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>28.00946174655565</v>
+        <v>29.05653581956762</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>71.99053825344434</v>
+        <v>70.94346418043239</v>
       </c>
     </row>
     <row r="6">
@@ -1790,34 +1790,34 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.232533125968933</v>
+        <v>1.239430784680211</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.9043348644032806</v>
+        <v>1.03507967575426</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.136867990372214</v>
+        <v>2.274510460434471</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>29.0245365747826</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623673</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>59.91964154531918</v>
+        <v>63.77925641376329</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623673</v>
       </c>
     </row>
   </sheetData>
@@ -1935,19 +1935,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>25.35833807054252</v>
+        <v>29.02453657478259</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>59.91964154531919</v>
+        <v>63.77925641376328</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>

--- a/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_34_summary.xlsx
@@ -1579,28 +1579,28 @@
         <v>1.03507967575426</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2.274510460434472</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.02453657478259</v>
+        <v>29.02453698171925</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>63.77925641376328</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
     </row>
   </sheetData>
@@ -1724,28 +1724,28 @@
         <v>0.9546087431147254</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9374098366336738</v>
+        <v>0.9374097866336738</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2.129397630476503</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.9374098366336738</v>
+        <v>0.9374097866336738</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>38.30657450657539</v>
+        <v>38.30657513111045</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.12711682596247</v>
+        <v>31.12711733344652</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>30.56630866746213</v>
+        <v>30.56630753544303</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>69.43369133253788</v>
+        <v>69.43369246455697</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>30.56630866746213</v>
+        <v>30.56630753544303</v>
       </c>
     </row>
     <row r="5">
@@ -1796,28 +1796,28 @@
         <v>1.03507967575426</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2.274510460434471</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.0245365747826</v>
+        <v>29.02453698171926</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>36.22074358623673</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>63.77925641376329</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>36.22074358623673</v>
+        <v>36.22074269202373</v>
       </c>
     </row>
   </sheetData>
@@ -1935,19 +1935,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>29.02453657478259</v>
+        <v>29.02453698171925</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>63.77925641376328</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
